--- a/유스케이스 명세서.xlsx
+++ b/유스케이스 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnHyangBin\Programming\AllRoundEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBDCCB0-E32D-4AE8-A991-89CC284BADE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B85835-0DD4-42C7-879E-349420BBA838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13365" yWindow="405" windowWidth="13740" windowHeight="14715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유스케이스 명세서" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="167">
   <si>
     <t>이름</t>
   </si>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>헤더 영역 &gt; 로그인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>기호 마우스 클릭으로 입력하기 구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -385,65 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작업완료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>헤더</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원가입</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸터 영역 &gt; 수식 툴바</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>작업예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,48 +429,6 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사이드바</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 영역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>즐겨찾기 목록</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="2"/>
         <charset val="129"/>
@@ -11170,6 +11065,217 @@
       </rPr>
       <t>.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(바디 or 사이드바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 영역)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>즐겨찾기 목록</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(바디 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헤더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영역)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(바디 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헤더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영역)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(바디 or 푸터 영역) &gt; 수식 툴바</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>김석범,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최규재</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정모,김형준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11180,7 +11286,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -11342,6 +11448,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -11562,7 +11681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -11763,16 +11882,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -11789,20 +11899,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -11810,17 +11911,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11833,6 +11928,51 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12060,513 +12200,498 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="81"/>
-    <col min="2" max="2" width="26.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="81" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="81"/>
-    <col min="6" max="6" width="19.28515625" style="81" customWidth="1"/>
-    <col min="7" max="8" width="42.140625" style="81" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="81"/>
+    <col min="1" max="1" width="14.42578125" style="76"/>
+    <col min="2" max="2" width="26.140625" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="76" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="76"/>
+    <col min="6" max="6" width="19.28515625" style="76" customWidth="1"/>
+    <col min="7" max="8" width="42.140625" style="76" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="76"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="F2" s="92" t="s">
-        <v>145</v>
+      <c r="B2" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="F2" s="84" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="68"/>
-      <c r="F3" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="90" t="s">
-        <v>147</v>
+      <c r="B3" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="91"/>
+      <c r="F3" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="F4" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="90" t="s">
-        <v>149</v>
+      <c r="B4" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="F4" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="90" t="s">
-        <v>151</v>
+      <c r="B5" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="82"/>
-      <c r="C6" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="90" t="s">
-        <v>153</v>
+      <c r="B6" s="89"/>
+      <c r="C6" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="82"/>
-      <c r="F7" s="91"/>
+      <c r="B7" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="82"/>
+      <c r="B8" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="89"/>
     </row>
     <row r="9" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="68"/>
+      <c r="B9" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="91"/>
     </row>
     <row r="10" spans="2:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>116</v>
+      <c r="B10" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="82"/>
-      <c r="C11" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>99</v>
+      <c r="B11" s="89"/>
+      <c r="C11" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="82"/>
+      <c r="B12" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="89"/>
     </row>
     <row r="13" spans="2:7" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
+      <c r="B14" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
     </row>
     <row r="15" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="72"/>
+      <c r="C15" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="92"/>
     </row>
     <row r="16" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="72"/>
+      <c r="C16" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="92"/>
     </row>
     <row r="17" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="72"/>
-      <c r="C18" s="73" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="73" t="s">
-        <v>120</v>
+      <c r="D18" s="70" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="85"/>
+      <c r="C19" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="87"/>
     </row>
     <row r="20" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="72"/>
+      <c r="C20" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="92"/>
     </row>
     <row r="21" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="72"/>
+      <c r="C21" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="92"/>
     </row>
     <row r="22" spans="2:4" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="73" t="s">
-        <v>154</v>
+      <c r="D22" s="70" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="85"/>
-      <c r="C23" s="85" t="s">
+      <c r="B23" s="87"/>
+      <c r="C23" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="74" t="s">
-        <v>143</v>
+      <c r="D23" s="71" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="73" t="s">
-        <v>144</v>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="70" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="85"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
     </row>
     <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B27" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
+      <c r="B27" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
     </row>
     <row r="28" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="77"/>
+      <c r="B28" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="85"/>
     </row>
     <row r="29" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="77"/>
+      <c r="B29" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="85"/>
     </row>
     <row r="30" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="79" t="s">
-        <v>130</v>
+      <c r="B30" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="71"/>
-      <c r="C31" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="79" t="s">
-        <v>132</v>
+      <c r="B31" s="88"/>
+      <c r="C31" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="88"/>
+      <c r="B32" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="86"/>
     </row>
     <row r="33" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="77"/>
+      <c r="B33" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="85"/>
     </row>
     <row r="34" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="77"/>
+      <c r="B34" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="85"/>
     </row>
     <row r="35" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="79" t="s">
-        <v>155</v>
+      <c r="B35" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="71"/>
-      <c r="C36" s="85" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="79" t="s">
-        <v>156</v>
+      <c r="B36" s="88"/>
+      <c r="C36" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B37" s="71"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="73" t="s">
-        <v>157</v>
+      <c r="B37" s="88"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="70" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="88"/>
+      <c r="B38" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="86"/>
     </row>
     <row r="39" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
     </row>
     <row r="40" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B40" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
+      <c r="B40" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
     </row>
     <row r="41" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="77"/>
+      <c r="B41" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="85"/>
     </row>
     <row r="42" spans="2:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="D42" s="77"/>
+      <c r="B42" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="85"/>
     </row>
     <row r="43" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="79" t="s">
-        <v>130</v>
+      <c r="B43" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="74" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="71"/>
-      <c r="C44" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="79" t="s">
-        <v>132</v>
+      <c r="B44" s="88"/>
+      <c r="C44" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="74" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="88"/>
+      <c r="B45" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="86"/>
     </row>
     <row r="46" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B46" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="77"/>
+      <c r="B46" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="85"/>
     </row>
     <row r="47" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="77"/>
+      <c r="B47" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="85"/>
     </row>
     <row r="48" spans="2:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="79" t="s">
-        <v>160</v>
+      <c r="B48" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="71"/>
-      <c r="C49" s="85" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="79" t="s">
-        <v>161</v>
+      <c r="B49" s="88"/>
+      <c r="C49" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="74" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="71"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="73" t="s">
-        <v>162</v>
+      <c r="B50" s="88"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="70" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="88"/>
+      <c r="B51" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="86"/>
     </row>
     <row r="52" spans="2:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="53" spans="2:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="54" spans="2:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="55" spans="2:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="61" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="89"/>
+      <c r="B61" s="81"/>
     </row>
     <row r="62" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
     </row>
     <row r="63" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="89"/>
-      <c r="D63" s="89"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C3:D3"/>
@@ -12583,10 +12708,25 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12600,7 +12740,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12609,7 +12749,8 @@
     <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.140625" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12693,11 +12834,11 @@
       <c r="F5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>67</v>
+      <c r="G5" s="99" t="s">
+        <v>166</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -12706,7 +12847,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="17"/>
       <c r="C6" s="55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>28</v>
@@ -12731,14 +12872,14 @@
       <c r="D7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="45" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
@@ -12755,8 +12896,8 @@
       <c r="F8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
@@ -12764,10 +12905,10 @@
       <c r="A9" s="3"/>
       <c r="B9" s="17"/>
       <c r="C9" s="61" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E9" s="44" t="s">
         <v>31</v>
@@ -12787,13 +12928,13 @@
       <c r="B10" s="17"/>
       <c r="C10" s="34"/>
       <c r="D10" s="63" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
@@ -12803,21 +12944,21 @@
     <row r="11" spans="1:10" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="32" t="s">
-        <v>34</v>
+      <c r="C11" s="61" t="s">
+        <v>161</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -12827,13 +12968,13 @@
       <c r="B12" s="17"/>
       <c r="C12" s="33"/>
       <c r="D12" s="60" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="23"/>
@@ -12845,13 +12986,13 @@
       <c r="B13" s="17"/>
       <c r="C13" s="34"/>
       <c r="D13" s="64" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="27"/>
@@ -12862,20 +13003,20 @@
       <c r="A14" s="3"/>
       <c r="B14" s="17"/>
       <c r="C14" s="56" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -12885,13 +13026,13 @@
       <c r="B15" s="17"/>
       <c r="C15" s="33"/>
       <c r="D15" s="65" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="23"/>
@@ -12903,13 +13044,13 @@
       <c r="B16" s="17"/>
       <c r="C16" s="56"/>
       <c r="D16" s="57" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="23"/>
@@ -12920,19 +13061,19 @@
       <c r="A17" s="3"/>
       <c r="B17" s="17"/>
       <c r="C17" s="58" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>27</v>
@@ -12945,15 +13086,15 @@
       <c r="B18" s="12"/>
       <c r="C18" s="34"/>
       <c r="D18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="15"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -12961,19 +13102,21 @@
     <row r="19" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="G19" s="93" t="s">
+        <v>164</v>
+      </c>
       <c r="H19" s="67" t="s">
         <v>27</v>
       </c>
@@ -12983,33 +13126,37 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+        <v>75</v>
+      </c>
+      <c r="G20" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="94" t="s">
+        <v>165</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
@@ -13019,23 +13166,23 @@
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="H22" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -13043,23 +13190,23 @@
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="H23" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -13067,23 +13214,23 @@
     <row r="24" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="35" t="s">
-        <v>67</v>
-      </c>
       <c r="H24" s="27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -13091,25 +13238,25 @@
     <row r="25" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>73</v>
-      </c>
       <c r="E25" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="H25" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>68</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -13119,19 +13266,19 @@
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="H26" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>68</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -13139,19 +13286,21 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="G27" s="93" t="s">
+        <v>164</v>
+      </c>
       <c r="H27" s="29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -13159,7 +13308,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -13185,13 +13334,13 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -13202,13 +13351,13 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -13219,13 +13368,13 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -13236,13 +13385,13 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="51" t="s">
         <v>56</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>57</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -13254,10 +13403,10 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="D34" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="51" t="s">
         <v>58</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>59</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -13267,26 +13416,26 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D35" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="51" t="s">
         <v>60</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D36" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="51" t="s">
         <v>62</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D37" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="52" t="s">
         <v>64</v>
-      </c>
-      <c r="E37" s="52" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
